--- a/tweets.xlsx
+++ b/tweets.xlsx
@@ -11,71 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Ensino Superior vai ser “de certeza presencial” a partir de Setembro: O ministro da Ciência e do Ensino Superior ressalvou que o regresso “tem de ser feito com responsabilidade, mas se não é o Ensino Superior a mostrar e a ensinar às pessoas como é que… https://t.co/OQjjpokSSx https://t.co/7tPXtDJjr5</t>
-  </si>
-  <si>
-    <t>Sat Jun 20 18:39:36 +0000 2020</t>
-  </si>
-  <si>
-    <t>Ensino Superior vai ser “de certeza presencial” a partir de setembro: https://t.co/lFuVMefyyR Esperemos bem que sim. #Pandemia https://t.co/HDMKcRFaqH</t>
-  </si>
-  <si>
-    <t>Sat Jun 20 14:49:02 +0000 2020</t>
-  </si>
-  <si>
-    <t>“Vai ser de certeza presencial, disso temos a certeza”, declarou o ministro Manuel Heitor, afirmando se deve aprender a viver com a pandemia https://t.co/YaAHtJQNp3</t>
-  </si>
-  <si>
-    <t>Sat Jun 20 07:41:23 +0000 2020</t>
-  </si>
-  <si>
-    <t>(Será que a Reitoria da @UMinho_Oficial vai, finalmente, começar a trabalhar a sério em planos para o presencial?)
-Ensino Superior vai ser "de certeza presencial" a partir de setembro https://t.co/MhNRB9Srbm via @sicnoticias</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 18:59:13 +0000 2020</t>
-  </si>
-  <si>
-    <t>Coronavírus: Ensino Superior vai ser “de certeza presencial” a partir de Setembro https://t.co/qWur1OGAVX</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 17:48:55 +0000 2020</t>
-  </si>
-  <si>
-    <t>Coronavírus: Ensino Superior vai ser “de certeza presencial” a partir de Setembro https://t.co/bm0ey68Yzg</t>
-  </si>
-  <si>
-    <t>O ministro da Ciência e do Ensino Superior afirmou hoje que o ensino superior “vai ser de certeza presencial” a partir do novo ano letivo e que deve dar o exemplo de como aprender a viver com a pandemia.
-#EnsinoSuperior #presencial https://t.co/G14LIxsYEg https://t.co/PF4Sge1XtW</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 17:06:00 +0000 2020</t>
-  </si>
-  <si>
-    <t>Ensino Superior vai ser “de certeza presencial“ a partir de setembro https://t.co/Pl6DKDvRIT</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 16:02:09 +0000 2020</t>
-  </si>
-  <si>
-    <t>Ensino Superior vai ser “de certeza presencial” a partir de setembro https://t.co/ya2YhzgK2n</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 15:22:33 +0000 2020</t>
-  </si>
-  <si>
-    <t>Ensino Superior vai ser “de certeza presencial” a partir de setembro
-https://t.co/Sy80EbfXYC</t>
-  </si>
-  <si>
-    <t>Fri Jun 19 15:18:50 +0000 2020</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,123 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tweets.xlsx
+++ b/tweets.xlsx
@@ -11,6 +11,67 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>@blackpinkcitou_ @BLACKPINK You Never Know porque tem toda uma bagagem por trás e mostrar isso logo no lançamento principal seria incrível. Além que de quebra a Jisoo jantou a música então seria a primeira title dando real foco pra nossa menina</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 02:16:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>[TRAD] 12.10.20 Artigo da Osen sobre Semicolon e sua title, Home;Run @pledis_17 
+"HOME;RUN é uma música retrô com base no swing — estilo derivado do jazz — de som vibrante e forte."
+[cont. na imagem] https://t.co/RFgFDGEeDg</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 01:58:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Eu Juro por Deus que eu chorei mais que o Archie no primeiro episódio (que fazem a homenagem ao Luke Perry)
+.
+.
+Já assistiu a "Riverdale" na Netflix?
+https://t.co/8kZf7CB0Jn</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 01:49:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>@blinkflwtrck No dia do meu aniversário  (02/10)
+A title foi Lovesick Girls</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 01:32:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>@cacaroq Está no catálogo da Netflix. https://t.co/NQVFe0PYkC</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 01:28:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>aqui pensando seventeen com mais uma title com home no nome vem aí 10 wins de novo 🙏</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 00:15:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>cada vez mais convencida de q o You and I no title de blue hour eh sobre os 5 msm. Em Magic island eles se conhecem e tals frequentam a msm escola, mas como mostra no clipe eles tinham esquecido os rolê da estrela e se lembraram de tudo isso quando chegaram na magic island</t>
+  </si>
+  <si>
+    <t>Mon Oct 12 00:04:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tinysangyeo depende de qual for a sua title fav anjo... escolha a que vc mais gosta nas fotos e se n me engano n tem photocard no diary... pesquisa melhor pra vc ter certeza.
+Mas é vc que decide anjinho👉🏻👈🏻💜</t>
+  </si>
+  <si>
+    <t>Sun Oct 11 23:48:59 +0000 2020</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +401,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>